--- a/Benchmark_model/Benchmark (new model).xlsx
+++ b/Benchmark_model/Benchmark (new model).xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EC1A1B-18B2-4309-BFE1-70CE58B6AE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F73182B-ECED-443A-A6ED-445E5967CA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFCFE6C6-9986-48F3-A637-F34CFFD61F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,22 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="36">
-  <si>
-    <t>Tên tập Dataset</t>
-  </si>
-  <si>
-    <t>Số lớp</t>
-  </si>
-  <si>
-    <t>Mô hình</t>
-  </si>
-  <si>
-    <t>Số vòng lặp mong muốn</t>
-  </si>
-  <si>
-    <t>Số vòng lặp thực tế</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="37">
   <si>
     <t>patient</t>
   </si>
@@ -68,13 +53,28 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>Thời gian trung bình 1 epoch (s)</t>
-  </si>
-  <si>
     <t>Dataset</t>
   </si>
   <si>
-    <t>Resnet50</t>
+    <t>Resnet152</t>
+  </si>
+  <si>
+    <t>Notebook server</t>
+  </si>
+  <si>
+    <t>EfficientNetV2L</t>
+  </si>
+  <si>
+    <t>CoAtNet</t>
+  </si>
+  <si>
+    <t>Pyramid-Net</t>
+  </si>
+  <si>
+    <t>Kaggle</t>
+  </si>
+  <si>
+    <t>ViT-B/16(pytorch)</t>
   </si>
   <si>
     <t>Garbage classification</t>
@@ -110,6 +110,9 @@
     <t>Drinking_waste_classification</t>
   </si>
   <si>
+    <t>Resnet50</t>
+  </si>
+  <si>
     <t>Garbage_classification_2</t>
   </si>
   <si>
@@ -122,28 +125,28 @@
     <t>Garbage_classification_3</t>
   </si>
   <si>
-    <t>Resnet152</t>
+    <t>Dataset's name</t>
   </si>
   <si>
-    <t>EfficientNetV2L</t>
+    <t>num of classes</t>
   </si>
   <si>
-    <t>Pyramid-Net</t>
+    <t>Model</t>
   </si>
   <si>
-    <t>Môi trường huấn luyện</t>
+    <t>The desired num of epochs</t>
   </si>
   <si>
-    <t>Tổng thời gian huấn luyện (s)</t>
+    <t>The actual num of epochs</t>
   </si>
   <si>
-    <t>Notebook server</t>
+    <t>The average time per epoch</t>
   </si>
   <si>
-    <t>Kaggle</t>
+    <t>Training environment</t>
   </si>
   <si>
-    <t>CoAtNet</t>
+    <t>Total training time (s)</t>
   </si>
 </sst>
 </file>
@@ -637,71 +640,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCDF627-D4FC-4E63-B3DF-A1DF2CB2A733}">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="76" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="29.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -728,7 +736,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M2">
         <v>557</v>
@@ -736,13 +744,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -769,7 +777,7 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M3">
         <v>849</v>
@@ -777,13 +785,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -810,7 +818,7 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M4">
         <v>176</v>
@@ -818,13 +826,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -851,7 +859,7 @@
         <v>87</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M5">
         <v>4541</v>
@@ -859,19 +867,44 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
       <c r="D6">
         <v>200</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>50</v>
+      </c>
+      <c r="G6">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="I6">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="J6">
+        <v>0.97863199999999995</v>
+      </c>
+      <c r="K6">
+        <f xml:space="preserve"> ROUND(M6/E6,0)</f>
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>926</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -882,7 +915,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -909,7 +942,7 @@
         <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M7">
         <v>3108</v>
@@ -923,7 +956,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -950,7 +983,7 @@
         <v>84</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M8">
         <v>6738</v>
@@ -964,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -991,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>640</v>
@@ -1005,7 +1038,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -1032,7 +1065,7 @@
         <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M10">
         <v>7458</v>
@@ -1045,14 +1078,39 @@
       <c r="B11">
         <v>12</v>
       </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
       <c r="D11">
         <v>200</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <v>50</v>
+      </c>
+      <c r="G11">
+        <v>0.94789999999999996</v>
+      </c>
+      <c r="H11">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="I11">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="J11">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="K11">
+        <f>ROUND( M11/E11,0)</f>
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11">
+        <v>5699</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1063,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -1090,7 +1148,7 @@
         <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M12">
         <v>1470</v>
@@ -1104,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>200</v>
@@ -1131,7 +1189,7 @@
         <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M13">
         <v>1628</v>
@@ -1145,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -1172,7 +1230,7 @@
         <v>8</v>
       </c>
       <c r="L14" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M14">
         <v>487</v>
@@ -1186,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -1213,7 +1271,7 @@
         <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M15">
         <v>8769</v>
@@ -1226,14 +1284,38 @@
       <c r="B16">
         <v>4</v>
       </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
       <c r="D16">
         <v>200</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F16">
         <v>50</v>
+      </c>
+      <c r="G16">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="H16">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.83723000000000003</v>
+      </c>
+      <c r="J16">
+        <v>0.83589999999999998</v>
+      </c>
+      <c r="K16">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>1281</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1244,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -1271,7 +1353,7 @@
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M17">
         <v>2500</v>
@@ -1285,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -1312,7 +1394,7 @@
         <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M18">
         <v>2527</v>
@@ -1326,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -1353,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M19">
         <v>28</v>
@@ -1367,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -1394,7 +1476,7 @@
         <v>68</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M20">
         <v>4806</v>
@@ -1407,14 +1489,39 @@
       <c r="B21">
         <v>3</v>
       </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
       <c r="D21">
         <v>200</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F21">
         <v>50</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f>ROUND(M21/E21,0)</f>
+        <v>9</v>
+      </c>
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>1774</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1425,7 +1532,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -1452,7 +1559,7 @@
         <v>53</v>
       </c>
       <c r="L22" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M22">
         <v>2943</v>
@@ -1466,7 +1573,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -1493,7 +1600,7 @@
         <v>73</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M23">
         <v>7734</v>
@@ -1507,7 +1614,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <v>200</v>
@@ -1534,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="L24" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M24">
         <v>885</v>
@@ -1548,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>200</v>
@@ -1575,7 +1682,7 @@
         <v>1153</v>
       </c>
       <c r="L25" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M25">
         <v>67943</v>
@@ -1588,14 +1695,39 @@
       <c r="B26">
         <v>3</v>
       </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
       <c r="D26">
         <v>200</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F26">
         <v>50</v>
+      </c>
+      <c r="G26">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="H26">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="I26">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="J26">
+        <v>0.985738</v>
+      </c>
+      <c r="K26">
+        <f>ROUND(M26/E26,0)</f>
+        <v>86</v>
+      </c>
+      <c r="L26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>5616</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1606,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>200</v>
@@ -1633,7 +1765,7 @@
         <v>7</v>
       </c>
       <c r="L27" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M27">
         <v>166</v>
@@ -1647,7 +1779,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D28">
         <v>200</v>
@@ -1674,7 +1806,7 @@
         <v>15</v>
       </c>
       <c r="L28" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M28">
         <v>627</v>
@@ -1688,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D29">
         <v>200</v>
@@ -1715,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M29">
         <v>36</v>
@@ -1729,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>200</v>
@@ -1756,7 +1888,7 @@
         <v>169</v>
       </c>
       <c r="L30" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M30">
         <v>10068</v>
@@ -1769,14 +1901,39 @@
       <c r="B31">
         <v>4</v>
       </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
       <c r="D31">
         <v>200</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F31">
         <v>50</v>
+      </c>
+      <c r="G31">
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="H31">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="I31">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="J31">
+        <v>0.98</v>
+      </c>
+      <c r="K31">
+        <f xml:space="preserve"> ROUND(M31/E31,0)</f>
+        <v>11</v>
+      </c>
+      <c r="L31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31">
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1787,7 +1944,7 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>200</v>
@@ -1814,7 +1971,7 @@
         <v>18</v>
       </c>
       <c r="L32" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M32">
         <v>882</v>
@@ -1828,7 +1985,7 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D33">
         <v>200</v>
@@ -1855,7 +2012,7 @@
         <v>25</v>
       </c>
       <c r="L33" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M33">
         <v>1389</v>
@@ -1869,7 +2026,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <v>200</v>
@@ -1896,7 +2053,7 @@
         <v>6</v>
       </c>
       <c r="L34" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M34">
         <v>195</v>
@@ -1910,7 +2067,7 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>200</v>
@@ -1922,22 +2079,22 @@
         <v>50</v>
       </c>
       <c r="G35">
-        <v>0.85160000000000002</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="H35">
-        <v>0.83089999999999997</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="I35">
-        <v>0.84619999999999995</v>
+        <v>0.53169999999999995</v>
       </c>
       <c r="J35">
-        <v>0.83509999999999995</v>
+        <v>0.80969999999999998</v>
       </c>
       <c r="K35">
         <v>121</v>
       </c>
       <c r="L35" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M35">
         <v>8946</v>
@@ -1950,14 +2107,35 @@
       <c r="B36">
         <v>8</v>
       </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
       <c r="D36">
         <v>200</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F36">
         <v>50</v>
+      </c>
+      <c r="G36">
+        <v>0.88939999999999997</v>
+      </c>
+      <c r="H36">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="I36">
+        <v>0.87209999999999999</v>
+      </c>
+      <c r="J36">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>1486</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -1968,7 +2146,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>200</v>
@@ -1995,7 +2173,7 @@
         <v>30</v>
       </c>
       <c r="L37" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M37">
         <v>1421</v>
@@ -2009,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D38">
         <v>200</v>
@@ -2036,7 +2214,7 @@
         <v>45</v>
       </c>
       <c r="L38" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M38">
         <v>4461</v>
@@ -2050,7 +2228,7 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <v>200</v>
@@ -2077,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="L39" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M39">
         <v>352</v>
@@ -2091,7 +2269,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>200</v>
@@ -2118,7 +2296,7 @@
         <v>132</v>
       </c>
       <c r="L40" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M40">
         <v>9048</v>
@@ -2131,14 +2309,39 @@
       <c r="B41">
         <v>6</v>
       </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
       <c r="D41">
         <v>200</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F41">
         <v>50</v>
+      </c>
+      <c r="G41">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="H41">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="I41">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="J41">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="K41">
+        <f xml:space="preserve"> ROUND(M41/E41,0)</f>
+        <v>42</v>
+      </c>
+      <c r="L41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>2534</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2149,7 +2352,7 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>200</v>
@@ -2176,7 +2379,7 @@
         <v>83</v>
       </c>
       <c r="L42" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M42">
         <v>4668</v>
@@ -2190,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D43">
         <v>200</v>
@@ -2217,7 +2420,7 @@
         <v>141</v>
       </c>
       <c r="L43" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M43">
         <v>8923</v>
@@ -2231,7 +2434,7 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <v>200</v>
@@ -2258,7 +2461,7 @@
         <v>7</v>
       </c>
       <c r="L44" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M44">
         <v>446</v>
@@ -2272,7 +2475,7 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>200</v>
@@ -2299,7 +2502,7 @@
         <v>347</v>
       </c>
       <c r="L45" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M45">
         <v>25683</v>
@@ -2312,14 +2515,39 @@
       <c r="B46">
         <v>10</v>
       </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
       <c r="D46">
         <v>200</v>
       </c>
       <c r="E46">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F46">
         <v>50</v>
+      </c>
+      <c r="G46">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="H46">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="I46">
+        <v>0.9516</v>
+      </c>
+      <c r="J46">
+        <v>0.95789999999999997</v>
+      </c>
+      <c r="K46">
+        <f>ROUND(M46/E46,0)</f>
+        <v>136</v>
+      </c>
+      <c r="L46" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46">
+        <v>8415</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2330,7 +2558,7 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>200</v>
@@ -2357,7 +2585,7 @@
         <v>14</v>
       </c>
       <c r="L47" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M47">
         <v>560</v>
@@ -2371,7 +2599,7 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D48">
         <v>200</v>
@@ -2398,7 +2626,7 @@
         <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M48">
         <v>972</v>
@@ -2412,7 +2640,7 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D49">
         <v>200</v>
@@ -2439,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="L49" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M49">
         <v>176</v>
@@ -2453,7 +2681,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>200</v>
@@ -2480,7 +2708,7 @@
         <v>98</v>
       </c>
       <c r="L50" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M50">
         <v>7127</v>
@@ -2493,14 +2721,39 @@
       <c r="B51">
         <v>6</v>
       </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
       <c r="D51">
         <v>200</v>
       </c>
       <c r="E51">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F51">
         <v>50</v>
+      </c>
+      <c r="G51">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="H51">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="I51">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="J51">
+        <v>0.90766199999999997</v>
+      </c>
+      <c r="K51">
+        <f xml:space="preserve"> ROUND(M51/E51,0)</f>
+        <v>15</v>
+      </c>
+      <c r="L51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51">
+        <v>943</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2511,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>200</v>
@@ -2538,7 +2791,7 @@
         <v>37</v>
       </c>
       <c r="L52" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M52">
         <v>1286</v>
@@ -2552,7 +2805,7 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D53">
         <v>200</v>
@@ -2579,7 +2832,7 @@
         <v>43</v>
       </c>
       <c r="L53" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M53">
         <v>1767</v>
@@ -2593,7 +2846,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D54">
         <v>200</v>
@@ -2620,7 +2873,7 @@
         <v>4</v>
       </c>
       <c r="L54" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M54">
         <v>277</v>
@@ -2634,7 +2887,7 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>200</v>
@@ -2661,7 +2914,7 @@
         <v>191</v>
       </c>
       <c r="L55" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M55">
         <v>13231</v>
@@ -2674,14 +2927,39 @@
       <c r="B56">
         <v>6</v>
       </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
       <c r="D56">
         <v>200</v>
       </c>
       <c r="E56">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F56">
         <v>50</v>
+      </c>
+      <c r="G56">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="H56">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="I56">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="J56">
+        <v>0.95709599999999995</v>
+      </c>
+      <c r="K56">
+        <f>ROUND(M56/E56,0)</f>
+        <v>35</v>
+      </c>
+      <c r="L56" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56">
+        <v>2287</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2692,7 +2970,7 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D57">
         <v>200</v>
@@ -2719,7 +2997,7 @@
         <v>21</v>
       </c>
       <c r="L57" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M57">
         <v>1171</v>
@@ -2733,7 +3011,7 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D58">
         <v>200</v>
@@ -2760,7 +3038,7 @@
         <v>25</v>
       </c>
       <c r="L58" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M58">
         <v>1554</v>
@@ -2774,7 +3052,7 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D59">
         <v>200</v>
@@ -2801,7 +3079,7 @@
         <v>7</v>
       </c>
       <c r="L59" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M59">
         <v>224</v>
@@ -2815,7 +3093,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <v>200</v>
@@ -2842,7 +3120,7 @@
         <v>137</v>
       </c>
       <c r="L60" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M60">
         <v>8325</v>
@@ -2855,25 +3133,50 @@
       <c r="B61">
         <v>4</v>
       </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
       <c r="D61">
         <v>200</v>
       </c>
       <c r="E61">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="F61">
         <v>50</v>
+      </c>
+      <c r="G61">
+        <v>0.9859</v>
+      </c>
+      <c r="H61">
+        <v>0.98640000000000005</v>
+      </c>
+      <c r="I61">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="J61">
+        <v>0.98556699999999997</v>
+      </c>
+      <c r="K61">
+        <f>ROUND(M61/E61,0)</f>
+        <v>29</v>
+      </c>
+      <c r="L61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M61">
+        <v>2709</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B62" s="14">
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>200</v>
@@ -2900,7 +3203,7 @@
         <v>21</v>
       </c>
       <c r="L62" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M62">
         <v>911</v>
@@ -2908,13 +3211,13 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D63">
         <v>200</v>
@@ -2941,7 +3244,7 @@
         <v>27</v>
       </c>
       <c r="L63" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M63">
         <v>2351</v>
@@ -2949,13 +3252,13 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D64">
         <v>200</v>
@@ -2982,7 +3285,7 @@
         <v>3</v>
       </c>
       <c r="L64" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M64">
         <v>151</v>
@@ -2990,13 +3293,13 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D65">
         <v>200</v>
@@ -3023,7 +3326,7 @@
         <v>109</v>
       </c>
       <c r="L65" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M65">
         <v>8919</v>
@@ -3031,30 +3334,55 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
       <c r="D66">
         <v>200</v>
       </c>
       <c r="E66">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="F66">
         <v>50</v>
+      </c>
+      <c r="G66">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="H66">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="I66">
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="J66">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="K66">
+        <f xml:space="preserve"> ROUND(M66/E66,0)</f>
+        <v>16</v>
+      </c>
+      <c r="L66" t="s">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <v>1124</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D67">
         <v>200</v>
@@ -3081,7 +3409,7 @@
         <v>132</v>
       </c>
       <c r="L67" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M67">
         <v>6351</v>
@@ -3089,13 +3417,13 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D68">
         <v>200</v>
@@ -3122,7 +3450,7 @@
         <v>147</v>
       </c>
       <c r="L68" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M68">
         <v>10431</v>
@@ -3130,13 +3458,13 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D69">
         <v>200</v>
@@ -3163,7 +3491,7 @@
         <v>10</v>
       </c>
       <c r="L69" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M69">
         <v>503</v>
@@ -3171,13 +3499,13 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D70">
         <v>200</v>
@@ -3204,7 +3532,7 @@
         <v>562</v>
       </c>
       <c r="L70" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M70">
         <v>41489</v>
@@ -3212,30 +3540,55 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
       <c r="D71">
         <v>200</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F71">
         <v>50</v>
+      </c>
+      <c r="G71">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="H71">
+        <v>0.88160000000000005</v>
+      </c>
+      <c r="I71">
+        <v>0.88939999999999997</v>
+      </c>
+      <c r="J71">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="K71">
+        <f xml:space="preserve"> ROUND(M71/E71,0)</f>
+        <v>145</v>
+      </c>
+      <c r="L71" t="s">
+        <v>7</v>
+      </c>
+      <c r="M71">
+        <v>7969</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B72">
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D72">
         <v>200</v>
@@ -3262,7 +3615,7 @@
         <v>58</v>
       </c>
       <c r="L72" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M72">
         <v>3532</v>
@@ -3270,13 +3623,13 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B73">
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D73">
         <v>200</v>
@@ -3303,7 +3656,7 @@
         <v>47</v>
       </c>
       <c r="L73" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M73">
         <v>3431</v>
@@ -3311,13 +3664,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B74">
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D74">
         <v>200</v>
@@ -3344,7 +3697,7 @@
         <v>7</v>
       </c>
       <c r="L74" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M74">
         <v>417</v>
@@ -3352,13 +3705,13 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B75">
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D75">
         <v>200</v>
@@ -3385,7 +3738,7 @@
         <v>241</v>
       </c>
       <c r="L75" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M75">
         <v>15643</v>
@@ -3393,30 +3746,55 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B76">
         <v>12</v>
       </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
       <c r="D76">
         <v>200</v>
       </c>
       <c r="E76">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="F76">
         <v>50</v>
+      </c>
+      <c r="G76">
+        <v>0.94820000000000004</v>
+      </c>
+      <c r="H76">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="I76">
+        <v>0.9486</v>
+      </c>
+      <c r="J76">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="K76">
+        <f>ROUND(M76/E76,0)</f>
+        <v>91</v>
+      </c>
+      <c r="L76" t="s">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>5071</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <v>200</v>
@@ -3443,7 +3821,7 @@
         <v>8</v>
       </c>
       <c r="L77" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M77">
         <v>781</v>
@@ -3451,13 +3829,13 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D78">
         <v>200</v>
@@ -3484,7 +3862,7 @@
         <v>17</v>
       </c>
       <c r="L78" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M78">
         <v>1798</v>
@@ -3492,13 +3870,13 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B79">
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D79">
         <v>200</v>
@@ -3525,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="L79" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="M79">
         <v>105</v>
@@ -3533,13 +3911,13 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B80">
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D80">
         <v>200</v>
@@ -3566,27 +3944,52 @@
         <v>95</v>
       </c>
       <c r="L80" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M80">
         <v>6974</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B81">
         <v>4</v>
       </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
       <c r="D81">
         <v>200</v>
       </c>
       <c r="E81">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F81">
         <v>50</v>
+      </c>
+      <c r="G81">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="H81">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="I81">
+        <v>0.96430000000000005</v>
+      </c>
+      <c r="J81">
+        <v>0.96379999999999999</v>
+      </c>
+      <c r="K81">
+        <f>ROUND(M81/E81,0)</f>
+        <v>11</v>
+      </c>
+      <c r="L81" t="s">
+        <v>7</v>
+      </c>
+      <c r="M81">
+        <v>952</v>
       </c>
     </row>
   </sheetData>
